--- a/src/static/personal_strctuer.xlsx
+++ b/src/static/personal_strctuer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>First Name</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Address Suburb</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>must be  number</t>
@@ -95,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +103,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -150,52 +153,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,28 +496,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="29.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="18.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,10 +548,10 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -586,59 +577,33 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
